--- a/app/excel/1995/1995-03-22.xlsx
+++ b/app/excel/1995/1995-03-22.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="1995-03-22" state="visible" r:id="rId4"/>
+    <sheet name="1995-03-22" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="164">
   <si>
     <t>RECALL_CLASSIFICATION_DATE</t>
   </si>
@@ -503,49 +506,19 @@
   </si>
   <si>
     <t>California Canada Argentina</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Lusee Tlc Steerable Guidewires Designed To Provide Maximum Torque Control And Steerability Enabling The Guidewire To Transverse Tortuous Vessels And Tight Stenoses A Lusee Plc Steerable Guidewire Soft Super Soft Standard Tip Flexibilities B 0</t>
-  </si>
-  <si>
-    <t>Cordis Corporation Miami Lakes Florida</t>
-  </si>
-  <si>
-    <t>N A</t>
-  </si>
-  <si>
-    <t>Tip Fractures Have Been Reported In Procedures Involving Total Occlusions Highly Tortuous Vasculature And Interferring Small Side Branche</t>
-  </si>
-  <si>
-    <t>Frozen Scallops 95 745 218 Et Al</t>
-  </si>
-  <si>
-    <t>Of The Presence Therein Of Decomposed Scallop</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>404 Not Found</t>
-  </si>
-  <si>
-    <t>Bulk Spices</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -598,44 +571,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -665,12 +638,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -709,208 +682,154 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:M34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1717,358 +1636,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" t="s">
-        <v>164</v>
-      </c>
-      <c r="E24" t="s">
-        <v>165</v>
-      </c>
-      <c r="F24" t="s">
-        <v>164</v>
-      </c>
-      <c r="G24" t="s">
-        <v>166</v>
-      </c>
-      <c r="H24" t="s">
-        <v>167</v>
-      </c>
-      <c r="I24" t="s">
-        <v>168</v>
-      </c>
-      <c r="J24" t="s">
-        <v>164</v>
-      </c>
-      <c r="K24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" t="s">
-        <v>164</v>
-      </c>
-      <c r="E25" t="s">
-        <v>169</v>
-      </c>
-      <c r="F25" t="s">
-        <v>164</v>
-      </c>
-      <c r="G25" t="s">
-        <v>164</v>
-      </c>
-      <c r="H25" t="s">
-        <v>167</v>
-      </c>
-      <c r="I25" t="s">
-        <v>170</v>
-      </c>
-      <c r="J25" t="s">
-        <v>164</v>
-      </c>
-      <c r="K25" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" t="s">
-        <v>172</v>
-      </c>
-      <c r="C26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" t="s">
-        <v>164</v>
-      </c>
-      <c r="E26" t="s">
-        <v>164</v>
-      </c>
-      <c r="F26" t="s">
-        <v>164</v>
-      </c>
-      <c r="G26" t="s">
-        <v>164</v>
-      </c>
-      <c r="H26" t="s">
-        <v>167</v>
-      </c>
-      <c r="I26" t="s">
-        <v>164</v>
-      </c>
-      <c r="J26" t="s">
-        <v>164</v>
-      </c>
-      <c r="K26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" t="s">
-        <v>172</v>
-      </c>
-      <c r="C27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" t="s">
-        <v>164</v>
-      </c>
-      <c r="E27" t="s">
-        <v>164</v>
-      </c>
-      <c r="F27" t="s">
-        <v>164</v>
-      </c>
-      <c r="G27" t="s">
-        <v>164</v>
-      </c>
-      <c r="H27" t="s">
-        <v>167</v>
-      </c>
-      <c r="I27" t="s">
-        <v>164</v>
-      </c>
-      <c r="J27" t="s">
-        <v>164</v>
-      </c>
-      <c r="K27" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" t="s">
-        <v>172</v>
-      </c>
-      <c r="C28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" t="s">
-        <v>164</v>
-      </c>
-      <c r="E28" t="s">
-        <v>164</v>
-      </c>
-      <c r="F28" t="s">
-        <v>164</v>
-      </c>
-      <c r="G28" t="s">
-        <v>164</v>
-      </c>
-      <c r="H28" t="s">
-        <v>167</v>
-      </c>
-      <c r="I28" t="s">
-        <v>164</v>
-      </c>
-      <c r="J28" t="s">
-        <v>164</v>
-      </c>
-      <c r="K28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" t="s">
-        <v>172</v>
-      </c>
-      <c r="C29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" t="s">
-        <v>164</v>
-      </c>
-      <c r="E29" t="s">
-        <v>164</v>
-      </c>
-      <c r="F29" t="s">
-        <v>164</v>
-      </c>
-      <c r="G29" t="s">
-        <v>164</v>
-      </c>
-      <c r="H29" t="s">
-        <v>167</v>
-      </c>
-      <c r="I29" t="s">
-        <v>164</v>
-      </c>
-      <c r="J29" t="s">
-        <v>164</v>
-      </c>
-      <c r="K29" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" t="s">
-        <v>172</v>
-      </c>
-      <c r="C30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" t="s">
-        <v>164</v>
-      </c>
-      <c r="E30" t="s">
-        <v>164</v>
-      </c>
-      <c r="F30" t="s">
-        <v>164</v>
-      </c>
-      <c r="G30" t="s">
-        <v>164</v>
-      </c>
-      <c r="H30" t="s">
-        <v>167</v>
-      </c>
-      <c r="I30" t="s">
-        <v>164</v>
-      </c>
-      <c r="J30" t="s">
-        <v>164</v>
-      </c>
-      <c r="K30" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" t="s">
-        <v>172</v>
-      </c>
-      <c r="C31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" t="s">
-        <v>164</v>
-      </c>
-      <c r="E31" t="s">
-        <v>164</v>
-      </c>
-      <c r="F31" t="s">
-        <v>164</v>
-      </c>
-      <c r="G31" t="s">
-        <v>164</v>
-      </c>
-      <c r="H31" t="s">
-        <v>167</v>
-      </c>
-      <c r="I31" t="s">
-        <v>164</v>
-      </c>
-      <c r="J31" t="s">
-        <v>164</v>
-      </c>
-      <c r="K31" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" t="s">
-        <v>172</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" t="s">
-        <v>164</v>
-      </c>
-      <c r="E32" t="s">
-        <v>164</v>
-      </c>
-      <c r="F32" t="s">
-        <v>164</v>
-      </c>
-      <c r="G32" t="s">
-        <v>164</v>
-      </c>
-      <c r="H32" t="s">
-        <v>167</v>
-      </c>
-      <c r="I32" t="s">
-        <v>164</v>
-      </c>
-      <c r="J32" t="s">
-        <v>164</v>
-      </c>
-      <c r="K32" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E33" t="s">
-        <v>173</v>
-      </c>
-      <c r="F33" t="s">
-        <v>164</v>
-      </c>
-      <c r="G33" t="s">
-        <v>164</v>
-      </c>
-      <c r="H33" t="s">
-        <v>167</v>
-      </c>
-      <c r="I33" t="s">
-        <v>164</v>
-      </c>
-      <c r="J33" t="s">
-        <v>164</v>
-      </c>
-      <c r="K33" t="s">
-        <v>171</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>